--- a/SIM_CALC/Fastino_Power_Budget.xlsx
+++ b/SIM_CALC/Fastino_Power_Budget.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\DESIGNS\Sinara_ALTIUM\EEMs\Fastino\SIM_CALC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D041E3DF-A2EF-4188-9858-A5EA47A5EC6F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60043CE-4E0D-470B-A2DE-F70C9E73DB7D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4DC8AE76-D61D-429B-865D-84EDF473E4BB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4DC8AE76-D61D-429B-865D-84EDF473E4BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Rail</t>
   </si>
@@ -51,9 +51,6 @@
     <t>P3V3</t>
   </si>
   <si>
-    <t>P5V0A</t>
-  </si>
-  <si>
     <t>P6V0A</t>
   </si>
   <si>
@@ -78,18 +75,12 @@
     <t>AD5542 VDD</t>
   </si>
   <si>
-    <t>AD8620 DAC opamp</t>
-  </si>
-  <si>
     <t>ADA4528</t>
   </si>
   <si>
     <t>LTC6655</t>
   </si>
   <si>
-    <t>AD8620 load (2mA)</t>
-  </si>
-  <si>
     <t>LED</t>
   </si>
   <si>
@@ -99,18 +90,9 @@
     <t>LDOs:</t>
   </si>
   <si>
-    <t>LT1763 (P12V0)</t>
-  </si>
-  <si>
     <t>LT1761 (REF VCC)</t>
   </si>
   <si>
-    <t>LT1964 (N12V0)</t>
-  </si>
-  <si>
-    <t>LT1763 (P5V0)</t>
-  </si>
-  <si>
     <t>NCP3170 (3V3)</t>
   </si>
   <si>
@@ -178,6 +160,27 @@
   </si>
   <si>
     <t>LM75</t>
+  </si>
+  <si>
+    <t>Ref load 220Rx4</t>
+  </si>
+  <si>
+    <t>P5V0A,P5V5A</t>
+  </si>
+  <si>
+    <t>2xLT3042 (P5V0,P5V5)</t>
+  </si>
+  <si>
+    <t>OPA2197 DAC opamp</t>
+  </si>
+  <si>
+    <t>OPA2197 load (5mA)</t>
+  </si>
+  <si>
+    <t>LT3042 (P12V0A)</t>
+  </si>
+  <si>
+    <t>LT1964 (N12V0A)</t>
   </si>
 </sst>
 </file>
@@ -582,12 +585,13 @@
   <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
     <col min="15" max="15" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -596,7 +600,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -611,28 +615,28 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
       <c r="L1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="N1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -642,7 +646,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -650,7 +654,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5">
         <v>36</v>
@@ -658,7 +662,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G6">
         <f>32*0.15</f>
@@ -667,33 +671,33 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="J7">
-        <f>32*3.5</f>
-        <v>112</v>
+        <f>32*2</f>
+        <v>64</v>
       </c>
       <c r="K7">
-        <f>32*3.5</f>
-        <v>112</v>
+        <f>32*2</f>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="J8">
-        <f>32*2</f>
-        <v>64</v>
+        <f>32*5</f>
+        <v>160</v>
       </c>
       <c r="K8">
-        <f>32*2</f>
-        <v>64</v>
+        <f>32*5</f>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="L9">
         <v>2</v>
@@ -701,7 +705,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G10">
         <f>8*2.1</f>
@@ -710,7 +714,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I11">
         <v>7.5</v>
@@ -718,7 +722,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -730,7 +734,7 @@
         <v>2</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>2</v>
@@ -744,21 +748,32 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F13">
         <f>12*2</f>
         <v>24</v>
       </c>
     </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14">
+        <v>9</v>
+      </c>
+    </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>48</v>
+      </c>
+      <c r="J16">
+        <v>10</v>
       </c>
       <c r="M16">
         <v>0.03</v>
@@ -766,15 +781,15 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="K17">
+        <v>19</v>
+      </c>
+      <c r="J17">
         <v>0.02</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="N18">
         <v>0.03</v>
@@ -782,20 +797,20 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19">
-        <v>0.03</v>
+        <v>45</v>
+      </c>
+      <c r="H19">
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -803,7 +818,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -811,7 +826,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>50</v>
@@ -819,7 +834,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>0.1</v>
@@ -827,7 +842,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F25">
         <v>0.05</v>
@@ -835,7 +850,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F26">
         <v>0.05</v>
@@ -843,16 +858,16 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C27">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="D27">
         <v>200</v>
       </c>
       <c r="E27">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="F27">
         <v>300</v>
@@ -860,7 +875,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -868,7 +883,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E29">
         <v>20</v>
@@ -876,7 +891,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="L30">
         <v>1</v>
@@ -884,7 +899,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B32">
         <f>SUM(B3:B31)</f>
@@ -892,7 +907,7 @@
       </c>
       <c r="C32">
         <f t="shared" ref="C32:N32" si="0">SUM(C3:C31)</f>
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="D32" s="4">
         <f t="shared" si="0"/>
@@ -900,7 +915,7 @@
       </c>
       <c r="E32" s="4">
         <f t="shared" si="0"/>
-        <v>522</v>
+        <v>322</v>
       </c>
       <c r="F32">
         <f t="shared" si="0"/>
@@ -908,11 +923,11 @@
       </c>
       <c r="G32" s="3">
         <f t="shared" si="0"/>
-        <v>63.629999999999995</v>
+        <v>72.599999999999994</v>
       </c>
       <c r="H32">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="I32" s="2">
         <f t="shared" si="0"/>
@@ -920,11 +935,11 @@
       </c>
       <c r="J32" s="6">
         <f t="shared" si="0"/>
-        <v>178</v>
+        <v>236.02</v>
       </c>
       <c r="K32" s="5">
         <f t="shared" si="0"/>
-        <v>178.02</v>
+        <v>226</v>
       </c>
       <c r="L32">
         <f t="shared" si="0"/>
@@ -941,15 +956,15 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F33" s="4">
         <f>(2.5/3.3)*D32+(1.8/3.3)*E32</f>
-        <v>436.24242424242425</v>
+        <v>327.15151515151513</v>
       </c>
       <c r="H33" s="3">
         <f>G32</f>
-        <v>63.629999999999995</v>
+        <v>72.599999999999994</v>
       </c>
       <c r="J33" s="2">
         <f>I32</f>
@@ -957,16 +972,16 @@
       </c>
       <c r="M33" s="6">
         <f>J32</f>
-        <v>178</v>
+        <v>236.02</v>
       </c>
       <c r="N33" s="5">
         <f>K32</f>
-        <v>178.02</v>
+        <v>226</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B34">
         <f>B32+B33</f>
@@ -974,7 +989,7 @@
       </c>
       <c r="C34">
         <f t="shared" ref="C34:N34" si="1">C32+C33</f>
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="D34">
         <f t="shared" si="1"/>
@@ -982,19 +997,19 @@
       </c>
       <c r="E34">
         <f t="shared" si="1"/>
-        <v>522</v>
+        <v>322</v>
       </c>
       <c r="F34">
         <f t="shared" si="1"/>
-        <v>762.34242424242427</v>
+        <v>653.25151515151515</v>
       </c>
       <c r="G34">
         <f t="shared" si="1"/>
-        <v>63.629999999999995</v>
+        <v>72.599999999999994</v>
       </c>
       <c r="H34">
         <f t="shared" si="1"/>
-        <v>65.63</v>
+        <v>92.6</v>
       </c>
       <c r="I34">
         <f t="shared" si="1"/>
@@ -1002,11 +1017,11 @@
       </c>
       <c r="J34">
         <f t="shared" si="1"/>
-        <v>187.5</v>
+        <v>245.52</v>
       </c>
       <c r="K34">
         <f>K32+K33</f>
-        <v>178.02</v>
+        <v>226</v>
       </c>
       <c r="L34">
         <f t="shared" si="1"/>
@@ -1014,16 +1029,16 @@
       </c>
       <c r="M34">
         <f t="shared" si="1"/>
-        <v>178.03</v>
+        <v>236.05</v>
       </c>
       <c r="N34">
         <f t="shared" si="1"/>
-        <v>178.05</v>
+        <v>226.03</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B35">
         <f>B34*12</f>
@@ -1031,7 +1046,7 @@
       </c>
       <c r="C35">
         <f>C34*1</f>
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="D35">
         <f>D34*1.8</f>
@@ -1039,19 +1054,19 @@
       </c>
       <c r="E35">
         <f>E34*2.5</f>
-        <v>1305</v>
+        <v>805</v>
       </c>
       <c r="F35">
         <f>F34*3.3</f>
-        <v>2515.73</v>
+        <v>2155.73</v>
       </c>
       <c r="G35">
         <f>G34*5</f>
-        <v>318.14999999999998</v>
+        <v>363</v>
       </c>
       <c r="H35">
         <f>H34*6</f>
-        <v>393.78</v>
+        <v>555.59999999999991</v>
       </c>
       <c r="I35">
         <f>I34*7</f>
@@ -1059,11 +1074,11 @@
       </c>
       <c r="J35">
         <f>J34*12</f>
-        <v>2250</v>
+        <v>2946.2400000000002</v>
       </c>
       <c r="K35">
         <f>K34*12</f>
-        <v>2136.2400000000002</v>
+        <v>2712</v>
       </c>
       <c r="L35">
         <f>L34*3.3</f>
@@ -1071,16 +1086,16 @@
       </c>
       <c r="M35">
         <f>M34*13</f>
-        <v>2314.39</v>
+        <v>3068.65</v>
       </c>
       <c r="N35">
         <f>N34*13</f>
-        <v>2314.65</v>
+        <v>2938.39</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -1109,10 +1124,10 @@
         <v>0.53846153846153844</v>
       </c>
       <c r="J36">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="K36">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="M36">
         <f>12.01/13</f>
@@ -1123,12 +1138,12 @@
         <v>0.92384615384615387</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B37">
         <f>(1-B36)*B35</f>
@@ -1136,7 +1151,7 @@
       </c>
       <c r="C37">
         <f t="shared" ref="C37:N37" si="2">(1-C36)*C35</f>
-        <v>750</v>
+        <v>250</v>
       </c>
       <c r="D37">
         <f t="shared" si="2"/>
@@ -1144,19 +1159,19 @@
       </c>
       <c r="E37">
         <f t="shared" si="2"/>
-        <v>130.49999999999997</v>
+        <v>80.499999999999986</v>
       </c>
       <c r="F37">
         <f t="shared" si="2"/>
-        <v>251.57299999999995</v>
+        <v>215.57299999999995</v>
       </c>
       <c r="G37">
         <f t="shared" si="2"/>
-        <v>53.024999999999984</v>
+        <v>60.499999999999986</v>
       </c>
       <c r="H37">
         <f t="shared" si="2"/>
-        <v>59.067000000000007</v>
+        <v>83.34</v>
       </c>
       <c r="I37">
         <f t="shared" si="2"/>
@@ -1164,11 +1179,11 @@
       </c>
       <c r="J37">
         <f t="shared" si="2"/>
-        <v>675.00000000000011</v>
+        <v>589.24799999999993</v>
       </c>
       <c r="K37">
         <f t="shared" si="2"/>
-        <v>640.87200000000018</v>
+        <v>542.39999999999986</v>
       </c>
       <c r="L37">
         <f t="shared" si="2"/>
@@ -1176,20 +1191,20 @@
       </c>
       <c r="M37">
         <f t="shared" si="2"/>
-        <v>176.24969999999993</v>
+        <v>233.68949999999992</v>
       </c>
       <c r="N37">
         <f t="shared" si="2"/>
-        <v>176.26949999999994</v>
+        <v>223.76969999999992</v>
       </c>
       <c r="O37">
         <f>SUM(B37:N37)</f>
-        <v>2989.1485076923077</v>
+        <v>2355.6125076923072</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B40">
         <f>B35</f>
@@ -1197,19 +1212,27 @@
       </c>
       <c r="C40">
         <f>C35</f>
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F40">
         <f>F35</f>
-        <v>2515.73</v>
+        <v>2155.73</v>
       </c>
       <c r="H40">
         <f>H35</f>
-        <v>393.78</v>
+        <v>555.59999999999991</v>
+      </c>
+      <c r="M40">
+        <f>M35</f>
+        <v>3068.65</v>
+      </c>
+      <c r="N40">
+        <f>N35</f>
+        <v>2938.39</v>
       </c>
       <c r="O40">
         <f>SUM(B40:N40)+O37</f>
-        <v>9571.8585076923082</v>
+        <v>12747.182507692307</v>
       </c>
     </row>
   </sheetData>

--- a/SIM_CALC/Fastino_Power_Budget.xlsx
+++ b/SIM_CALC/Fastino_Power_Budget.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\DESIGNS\Sinara_ALTIUM\EEMs\Fastino\SIM_CALC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60043CE-4E0D-470B-A2DE-F70C9E73DB7D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29996D60-F897-43F4-BA46-825EC0C5EE8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4DC8AE76-D61D-429B-865D-84EDF473E4BB}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4DC8AE76-D61D-429B-865D-84EDF473E4BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Rail</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Part</t>
   </si>
   <si>
-    <t>P1V0</t>
-  </si>
-  <si>
     <t>P1V8</t>
   </si>
   <si>
@@ -90,9 +87,6 @@
     <t>LDOs:</t>
   </si>
   <si>
-    <t>LT1761 (REF VCC)</t>
-  </si>
-  <si>
     <t>NCP3170 (3V3)</t>
   </si>
   <si>
@@ -174,13 +168,16 @@
     <t>OPA2197 DAC opamp</t>
   </si>
   <si>
-    <t>OPA2197 load (5mA)</t>
-  </si>
-  <si>
-    <t>LT3042 (P12V0A)</t>
-  </si>
-  <si>
-    <t>LT1964 (N12V0A)</t>
+    <t>LT3094 (N12V0A)</t>
+  </si>
+  <si>
+    <t>LT3045 (P12V0A)</t>
+  </si>
+  <si>
+    <t>OPA2197 load (10mA)</t>
+  </si>
+  <si>
+    <t>P1V2</t>
   </si>
 </sst>
 </file>
@@ -584,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C130ADAE-2F1D-4FBF-B703-EFB3430E5979}">
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,43 +597,43 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
       <c r="L1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" t="s">
         <v>34</v>
-      </c>
-      <c r="M1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -646,7 +643,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -654,7 +651,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G5">
         <v>36</v>
@@ -662,7 +659,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6">
         <f>32*0.15</f>
@@ -671,7 +668,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J7">
         <f>32*2</f>
@@ -687,17 +684,17 @@
         <v>47</v>
       </c>
       <c r="J8">
-        <f>32*5</f>
-        <v>160</v>
+        <f>32*10</f>
+        <v>320</v>
       </c>
       <c r="K8">
-        <f>32*5</f>
-        <v>160</v>
+        <f>32*10</f>
+        <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L9">
         <v>2</v>
@@ -705,7 +702,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G10">
         <f>8*2.1</f>
@@ -714,7 +711,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I11">
         <v>7.5</v>
@@ -722,7 +719,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -748,7 +745,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F13">
         <f>12*2</f>
@@ -757,7 +754,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G14">
         <v>9</v>
@@ -765,12 +762,12 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J16">
         <v>10</v>
@@ -779,17 +776,9 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="J17">
-        <v>0.02</v>
-      </c>
-    </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="N18">
         <v>0.03</v>
@@ -797,7 +786,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H19">
         <v>20</v>
@@ -805,12 +794,12 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -818,7 +807,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -826,7 +815,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B23">
         <v>50</v>
@@ -834,7 +823,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B24">
         <v>0.1</v>
@@ -842,7 +831,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F25">
         <v>0.05</v>
@@ -850,7 +839,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F26">
         <v>0.05</v>
@@ -858,13 +847,13 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C27">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D27">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <v>300</v>
@@ -875,7 +864,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -883,7 +872,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E29">
         <v>20</v>
@@ -891,7 +880,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L30">
         <v>1</v>
@@ -899,7 +888,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B32">
         <f>SUM(B3:B31)</f>
@@ -907,11 +896,11 @@
       </c>
       <c r="C32">
         <f t="shared" ref="C32:N32" si="0">SUM(C3:C31)</f>
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D32" s="4">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E32" s="4">
         <f t="shared" si="0"/>
@@ -935,11 +924,11 @@
       </c>
       <c r="J32" s="6">
         <f t="shared" si="0"/>
-        <v>236.02</v>
+        <v>396</v>
       </c>
       <c r="K32" s="5">
         <f t="shared" si="0"/>
-        <v>226</v>
+        <v>386</v>
       </c>
       <c r="L32">
         <f t="shared" si="0"/>
@@ -956,11 +945,11 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F33" s="4">
         <f>(2.5/3.3)*D32+(1.8/3.3)*E32</f>
-        <v>327.15151515151513</v>
+        <v>175.63636363636365</v>
       </c>
       <c r="H33" s="3">
         <f>G32</f>
@@ -972,16 +961,16 @@
       </c>
       <c r="M33" s="6">
         <f>J32</f>
-        <v>236.02</v>
+        <v>396</v>
       </c>
       <c r="N33" s="5">
         <f>K32</f>
-        <v>226</v>
+        <v>386</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B34">
         <f>B32+B33</f>
@@ -989,11 +978,11 @@
       </c>
       <c r="C34">
         <f t="shared" ref="C34:N34" si="1">C32+C33</f>
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D34">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E34">
         <f t="shared" si="1"/>
@@ -1001,7 +990,7 @@
       </c>
       <c r="F34">
         <f t="shared" si="1"/>
-        <v>653.25151515151515</v>
+        <v>501.73636363636365</v>
       </c>
       <c r="G34">
         <f t="shared" si="1"/>
@@ -1017,11 +1006,11 @@
       </c>
       <c r="J34">
         <f t="shared" si="1"/>
-        <v>245.52</v>
+        <v>405.5</v>
       </c>
       <c r="K34">
         <f>K32+K33</f>
-        <v>226</v>
+        <v>386</v>
       </c>
       <c r="L34">
         <f t="shared" si="1"/>
@@ -1029,16 +1018,16 @@
       </c>
       <c r="M34">
         <f t="shared" si="1"/>
-        <v>236.05</v>
+        <v>396.03</v>
       </c>
       <c r="N34">
         <f t="shared" si="1"/>
-        <v>226.03</v>
+        <v>386.03</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B35">
         <f>B34*12</f>
@@ -1046,11 +1035,11 @@
       </c>
       <c r="C35">
         <f>C34*1</f>
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D35">
         <f>D34*1.8</f>
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="E35">
         <f>E34*2.5</f>
@@ -1058,7 +1047,7 @@
       </c>
       <c r="F35">
         <f>F34*3.3</f>
-        <v>2155.73</v>
+        <v>1655.73</v>
       </c>
       <c r="G35">
         <f>G34*5</f>
@@ -1074,11 +1063,11 @@
       </c>
       <c r="J35">
         <f>J34*12</f>
-        <v>2946.2400000000002</v>
+        <v>4866</v>
       </c>
       <c r="K35">
         <f>K34*12</f>
-        <v>2712</v>
+        <v>4632</v>
       </c>
       <c r="L35">
         <f>L34*3.3</f>
@@ -1086,16 +1075,16 @@
       </c>
       <c r="M35">
         <f>M34*13</f>
-        <v>3068.65</v>
+        <v>5148.3899999999994</v>
       </c>
       <c r="N35">
         <f>N34*13</f>
-        <v>2938.39</v>
+        <v>5018.3899999999994</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -1138,12 +1127,12 @@
         <v>0.92384615384615387</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <f>(1-B36)*B35</f>
@@ -1151,11 +1140,11 @@
       </c>
       <c r="C37">
         <f t="shared" ref="C37:N37" si="2">(1-C36)*C35</f>
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="D37">
         <f t="shared" si="2"/>
-        <v>35.999999999999993</v>
+        <v>0</v>
       </c>
       <c r="E37">
         <f t="shared" si="2"/>
@@ -1163,7 +1152,7 @@
       </c>
       <c r="F37">
         <f t="shared" si="2"/>
-        <v>215.57299999999995</v>
+        <v>165.57299999999998</v>
       </c>
       <c r="G37">
         <f t="shared" si="2"/>
@@ -1179,11 +1168,11 @@
       </c>
       <c r="J37">
         <f t="shared" si="2"/>
-        <v>589.24799999999993</v>
+        <v>973.19999999999982</v>
       </c>
       <c r="K37">
         <f t="shared" si="2"/>
-        <v>542.39999999999986</v>
+        <v>926.39999999999975</v>
       </c>
       <c r="L37">
         <f t="shared" si="2"/>
@@ -1191,20 +1180,20 @@
       </c>
       <c r="M37">
         <f t="shared" si="2"/>
-        <v>233.68949999999992</v>
+        <v>392.06969999999984</v>
       </c>
       <c r="N37">
         <f t="shared" si="2"/>
-        <v>223.76969999999992</v>
+        <v>382.16969999999981</v>
       </c>
       <c r="O37">
         <f>SUM(B37:N37)</f>
-        <v>2355.6125076923072</v>
+        <v>3229.3447076923071</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B40">
         <f>B35</f>
@@ -1212,11 +1201,11 @@
       </c>
       <c r="C40">
         <f>C35</f>
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F40">
         <f>F35</f>
-        <v>2155.73</v>
+        <v>1655.73</v>
       </c>
       <c r="H40">
         <f>H35</f>
@@ -1224,15 +1213,15 @@
       </c>
       <c r="M40">
         <f>M35</f>
-        <v>3068.65</v>
+        <v>5148.3899999999994</v>
       </c>
       <c r="N40">
         <f>N35</f>
-        <v>2938.39</v>
+        <v>5018.3899999999994</v>
       </c>
       <c r="O40">
         <f>SUM(B40:N40)+O37</f>
-        <v>12747.182507692307</v>
+        <v>16780.654707692305</v>
       </c>
     </row>
   </sheetData>

--- a/SIM_CALC/Fastino_Power_Budget.xlsx
+++ b/SIM_CALC/Fastino_Power_Budget.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\DESIGNS\Sinara_ALTIUM\EEMs\Fastino\SIM_CALC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29996D60-F897-43F4-BA46-825EC0C5EE8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F38D787C-6A4B-44E2-8065-070972BD9481}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4DC8AE76-D61D-429B-865D-84EDF473E4BB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4DC8AE76-D61D-429B-865D-84EDF473E4BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Rail</t>
   </si>
@@ -90,24 +90,12 @@
     <t>NCP3170 (3V3)</t>
   </si>
   <si>
-    <t>CC6-1212DF-E</t>
-  </si>
-  <si>
     <t>TPS62175</t>
   </si>
   <si>
     <t>Iq:</t>
   </si>
   <si>
-    <t>TLV62565(1V8)</t>
-  </si>
-  <si>
-    <t>TLV62565(2V5)</t>
-  </si>
-  <si>
-    <t>NCP3170 (1V0)</t>
-  </si>
-  <si>
     <t>rail current</t>
   </si>
   <si>
@@ -120,12 +108,6 @@
     <t>FPGA</t>
   </si>
   <si>
-    <t>LM339</t>
-  </si>
-  <si>
-    <t>MT25QL512A</t>
-  </si>
-  <si>
     <t>24AA02E048</t>
   </si>
   <si>
@@ -156,15 +138,6 @@
     <t>LM75</t>
   </si>
   <si>
-    <t>Ref load 220Rx4</t>
-  </si>
-  <si>
-    <t>P5V0A,P5V5A</t>
-  </si>
-  <si>
-    <t>2xLT3042 (P5V0,P5V5)</t>
-  </si>
-  <si>
     <t>OPA2197 DAC opamp</t>
   </si>
   <si>
@@ -178,6 +151,27 @@
   </si>
   <si>
     <t>P1V2</t>
+  </si>
+  <si>
+    <t>P5V4A</t>
+  </si>
+  <si>
+    <t>2xLT3042 (P5V4)</t>
+  </si>
+  <si>
+    <t>Ref load 1kx4</t>
+  </si>
+  <si>
+    <t>AUR9705(1V2)</t>
+  </si>
+  <si>
+    <t>AUR9705(2V5)</t>
+  </si>
+  <si>
+    <t>CC10-1212DF-E</t>
+  </si>
+  <si>
+    <t>AT25SF081-SHD-T</t>
   </si>
 </sst>
 </file>
@@ -582,7 +576,7 @@
   <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,7 +594,7 @@
         <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -612,7 +606,7 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -627,13 +621,13 @@
         <v>8</v>
       </c>
       <c r="L1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="M1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="N1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -668,7 +662,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J7">
         <f>32*2</f>
@@ -681,7 +675,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J8">
         <f>32*10</f>
@@ -694,7 +688,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L9">
         <v>2</v>
@@ -754,10 +748,10 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G14">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -767,7 +761,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J16">
         <v>10</v>
@@ -778,7 +772,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="N18">
         <v>0.03</v>
@@ -786,7 +780,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H19">
         <v>20</v>
@@ -794,7 +788,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -805,17 +799,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-    </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="B23">
         <v>50</v>
@@ -823,7 +809,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24">
         <v>0.1</v>
@@ -831,7 +817,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="F25">
         <v>0.05</v>
@@ -839,7 +825,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="F26">
         <v>0.05</v>
@@ -847,7 +833,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C27">
         <v>500</v>
@@ -862,25 +848,17 @@
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28">
-        <v>2</v>
-      </c>
-    </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29">
+        <v>46</v>
+      </c>
+      <c r="F29">
         <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="L30">
         <v>1</v>
@@ -888,11 +866,11 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B32">
         <f>SUM(B3:B31)</f>
-        <v>56.1</v>
+        <v>52.1</v>
       </c>
       <c r="C32">
         <f t="shared" ref="C32:N32" si="0">SUM(C3:C31)</f>
@@ -904,15 +882,15 @@
       </c>
       <c r="E32" s="4">
         <f t="shared" si="0"/>
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="F32">
         <f t="shared" si="0"/>
-        <v>326.10000000000002</v>
+        <v>346.1</v>
       </c>
       <c r="G32" s="3">
         <f t="shared" si="0"/>
-        <v>72.599999999999994</v>
+        <v>83.6</v>
       </c>
       <c r="H32">
         <f t="shared" si="0"/>
@@ -945,15 +923,15 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F33" s="4">
         <f>(2.5/3.3)*D32+(1.8/3.3)*E32</f>
-        <v>175.63636363636365</v>
+        <v>164.72727272727275</v>
       </c>
       <c r="H33" s="3">
         <f>G32</f>
-        <v>72.599999999999994</v>
+        <v>83.6</v>
       </c>
       <c r="J33" s="2">
         <f>I32</f>
@@ -970,11 +948,11 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B34">
         <f>B32+B33</f>
-        <v>56.1</v>
+        <v>52.1</v>
       </c>
       <c r="C34">
         <f t="shared" ref="C34:N34" si="1">C32+C33</f>
@@ -986,19 +964,19 @@
       </c>
       <c r="E34">
         <f t="shared" si="1"/>
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="F34">
         <f t="shared" si="1"/>
-        <v>501.73636363636365</v>
+        <v>510.82727272727277</v>
       </c>
       <c r="G34">
         <f t="shared" si="1"/>
-        <v>72.599999999999994</v>
+        <v>83.6</v>
       </c>
       <c r="H34">
         <f t="shared" si="1"/>
-        <v>92.6</v>
+        <v>103.6</v>
       </c>
       <c r="I34">
         <f t="shared" si="1"/>
@@ -1027,11 +1005,11 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B35">
         <f>B34*12</f>
-        <v>673.2</v>
+        <v>625.20000000000005</v>
       </c>
       <c r="C35">
         <f>C34*1</f>
@@ -1043,19 +1021,19 @@
       </c>
       <c r="E35">
         <f>E34*2.5</f>
-        <v>805</v>
+        <v>755</v>
       </c>
       <c r="F35">
         <f>F34*3.3</f>
-        <v>1655.73</v>
+        <v>1685.73</v>
       </c>
       <c r="G35">
-        <f>G34*5</f>
-        <v>363</v>
+        <f>G34*5.4</f>
+        <v>451.44</v>
       </c>
       <c r="H35">
         <f>H34*6</f>
-        <v>555.59999999999991</v>
+        <v>621.59999999999991</v>
       </c>
       <c r="I35">
         <f>I34*7</f>
@@ -1084,7 +1062,7 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -1102,8 +1080,8 @@
         <v>0.9</v>
       </c>
       <c r="G36">
-        <f>5/6</f>
-        <v>0.83333333333333337</v>
+        <f>5.4/6</f>
+        <v>0.9</v>
       </c>
       <c r="H36">
         <v>0.85</v>
@@ -1127,12 +1105,12 @@
         <v>0.92384615384615387</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B37">
         <f>(1-B36)*B35</f>
@@ -1148,19 +1126,19 @@
       </c>
       <c r="E37">
         <f t="shared" si="2"/>
-        <v>80.499999999999986</v>
+        <v>75.499999999999986</v>
       </c>
       <c r="F37">
         <f t="shared" si="2"/>
-        <v>165.57299999999998</v>
+        <v>168.57299999999995</v>
       </c>
       <c r="G37">
         <f t="shared" si="2"/>
-        <v>60.499999999999986</v>
+        <v>45.143999999999991</v>
       </c>
       <c r="H37">
         <f t="shared" si="2"/>
-        <v>83.34</v>
+        <v>93.24</v>
       </c>
       <c r="I37">
         <f t="shared" si="2"/>
@@ -1188,16 +1166,16 @@
       </c>
       <c r="O37">
         <f>SUM(B37:N37)</f>
-        <v>3229.3447076923071</v>
+        <v>3221.8887076923074</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B40">
         <f>B35</f>
-        <v>673.2</v>
+        <v>625.20000000000005</v>
       </c>
       <c r="C40">
         <f>C35</f>
@@ -1205,11 +1183,11 @@
       </c>
       <c r="F40">
         <f>F35</f>
-        <v>1655.73</v>
+        <v>1685.73</v>
       </c>
       <c r="H40">
         <f>H35</f>
-        <v>555.59999999999991</v>
+        <v>621.59999999999991</v>
       </c>
       <c r="M40">
         <f>M35</f>
@@ -1221,7 +1199,7 @@
       </c>
       <c r="O40">
         <f>SUM(B40:N40)+O37</f>
-        <v>16780.654707692305</v>
+        <v>16821.198707692307</v>
       </c>
     </row>
   </sheetData>

--- a/SIM_CALC/Fastino_Power_Budget.xlsx
+++ b/SIM_CALC/Fastino_Power_Budget.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\DESIGNS\Sinara_ALTIUM\EEMs\Fastino\SIM_CALC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\hardware\Fastino\SIM_CALC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F38D787C-6A4B-44E2-8065-070972BD9481}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4DC8AE76-D61D-429B-865D-84EDF473E4BB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -177,7 +176,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -261,7 +260,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -572,11 +571,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C130ADAE-2F1D-4FBF-B703-EFB3430E5979}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27"/>
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,8 +741,11 @@
         <v>16</v>
       </c>
       <c r="F13">
-        <f>12*2</f>
-        <v>24</v>
+        <f>12</f>
+        <v>12</v>
+      </c>
+      <c r="L13">
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -852,7 +854,7 @@
       <c r="A29" t="s">
         <v>46</v>
       </c>
-      <c r="F29">
+      <c r="L29">
         <v>20</v>
       </c>
     </row>
@@ -886,7 +888,7 @@
       </c>
       <c r="F32">
         <f t="shared" si="0"/>
-        <v>346.1</v>
+        <v>314.10000000000002</v>
       </c>
       <c r="G32" s="3">
         <f t="shared" si="0"/>
@@ -910,7 +912,7 @@
       </c>
       <c r="L32">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="M32">
         <f t="shared" si="0"/>
@@ -968,7 +970,7 @@
       </c>
       <c r="F34">
         <f t="shared" si="1"/>
-        <v>510.82727272727277</v>
+        <v>478.82727272727277</v>
       </c>
       <c r="G34">
         <f t="shared" si="1"/>
@@ -992,7 +994,7 @@
       </c>
       <c r="L34">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="M34">
         <f t="shared" si="1"/>
@@ -1025,7 +1027,7 @@
       </c>
       <c r="F35">
         <f>F34*3.3</f>
-        <v>1685.73</v>
+        <v>1580.13</v>
       </c>
       <c r="G35">
         <f>G34*5.4</f>
@@ -1049,7 +1051,7 @@
       </c>
       <c r="L35">
         <f>L34*3.3</f>
-        <v>9.8999999999999986</v>
+        <v>115.5</v>
       </c>
       <c r="M35">
         <f>M34*13</f>
@@ -1130,7 +1132,7 @@
       </c>
       <c r="F37">
         <f t="shared" si="2"/>
-        <v>168.57299999999995</v>
+        <v>158.01299999999998</v>
       </c>
       <c r="G37">
         <f t="shared" si="2"/>
@@ -1154,7 +1156,7 @@
       </c>
       <c r="L37">
         <f t="shared" si="2"/>
-        <v>9.8999999999999986</v>
+        <v>115.5</v>
       </c>
       <c r="M37">
         <f t="shared" si="2"/>
@@ -1166,7 +1168,7 @@
       </c>
       <c r="O37">
         <f>SUM(B37:N37)</f>
-        <v>3221.8887076923074</v>
+        <v>3316.9287076923069</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -1183,7 +1185,7 @@
       </c>
       <c r="F40">
         <f>F35</f>
-        <v>1685.73</v>
+        <v>1580.13</v>
       </c>
       <c r="H40">
         <f>H35</f>
@@ -1199,7 +1201,7 @@
       </c>
       <c r="O40">
         <f>SUM(B40:N40)+O37</f>
-        <v>16821.198707692307</v>
+        <v>16810.638707692306</v>
       </c>
     </row>
   </sheetData>
